--- a/data/hotels_by_city/Dallas/Dallas_shard_262.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="781">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jeannette Z</t>
+  </si>
+  <si>
     <t>05/30/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>The room was very nice, the trash cans were all too small. The breakfast was okay, breakfast fajitas &amp; Waffles? I think there was cereal too. There were a couple maintenance issues I mentioned to the staff. I was on the second floor and didn't hear much from the hallway, which was nice. The temperature control was very nice and the beds were moderately comfortable (I have a personal preference for firmer mattresses and pillows.) The bathroom looked really nice but water leaks from shower to floor, even though I don't see caulking issues. The towels were nice. The room featured a mini-kitchen and a couch. The tv was in a weird spot, just needed to rotate it. Overall, I'd stay again.More</t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r575709738-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>My sister-in-law and myself just stayed 5 nights at this hotel.  We were checked in by your very friendly Front Desk Agent Carmaleta. She is the best Front Desk Agent I have ever met.  She is beyond friendly and helpful.  She always has a smile and greets everyone like they are her best friends.  The hotel is newer and is very clean.  The first night in our room everything was great.  The second night the people above us were very loud.  Constant stomping across the floor.  It sounded like they were bowling, something heavy would hit the floor then roll across the room, then repeated over and over.  The next morning I asked Carmaleta if there were any rooms available on the top floor and she checked and we were able to change rooms immediately.  My sister-in-law and I were celebrating our birthdays on this trip. On my birthday she greeted me as I walked to breakfast with a big Happy Birthday!  She told me see I didn’t forget.  As my sister-in-law sat down to eat Carmaleta gave each of us a birthday card she had made for us, with a personal hand written note in each one along with a candy bar for each of us.  There was another family (grandma, mom and 2-year old boy) staying at the hotel the same days we were.  We saw them every morning at breakfast.  Carmaleta was so friendly she greeted the...My sister-in-law and myself just stayed 5 nights at this hotel.  We were checked in by your very friendly Front Desk Agent Carmaleta. She is the best Front Desk Agent I have ever met.  She is beyond friendly and helpful.  She always has a smile and greets everyone like they are her best friends.  The hotel is newer and is very clean.  The first night in our room everything was great.  The second night the people above us were very loud.  Constant stomping across the floor.  It sounded like they were bowling, something heavy would hit the floor then roll across the room, then repeated over and over.  The next morning I asked Carmaleta if there were any rooms available on the top floor and she checked and we were able to change rooms immediately.  My sister-in-law and I were celebrating our birthdays on this trip. On my birthday she greeted me as I walked to breakfast with a big Happy Birthday!  She told me see I didn’t forget.  As my sister-in-law sat down to eat Carmaleta gave each of us a birthday card she had made for us, with a personal hand written note in each one along with a candy bar for each of us.  There was another family (grandma, mom and 2-year old boy) staying at the hotel the same days we were.  We saw them every morning at breakfast.  Carmaleta was so friendly she greeted the 2-year old everyday with a hug and some sort of snack for him.  On his last day she gave him snacks and an outfit.  Carmaleta spoke to everyone we saw her greet at the desk or heard her talk to on the phone with the same wonderful, friendly personality.  She is a great example of how a person working in the hospitality field should interact with customers.  I don’t mean they should give gifts but just make people feel like they have a friend in a new place. Carmaleta takes the time to make everyone feel welcome and special. This was my first visit to Richardson, Texas and I feel like I made a new friend.  Thanks Carmaleta! You’re the best!More</t>
   </si>
   <si>
+    <t>geoffleighton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r581382700-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Simon H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r581054706-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>browhow2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r580916148-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>The staff is great and always have a smile on there face. New hotel smell wonderful. Breakfast was good and hot. My kids love the pool since it was a hot day. Coffee was always out and fresh. Will return</t>
   </si>
   <si>
+    <t>689kevinf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r579299161-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>My last minute reservation turned out better than if I’d planned way ahead. This Hampton was superior in amenities and service.  The website noted they were under construction, but I was not inconvenienced the hours of my stay, Sunday 8 pm - noon Monday.More</t>
   </si>
   <si>
+    <t>Alan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r577464884-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>We needed a place to stay for a family reunion in Allen and also to visit family in Dallas. This new hotel was very nice and in a good location for both of these.  The staff was very friendly and helpful.More</t>
   </si>
   <si>
+    <t>Lucas L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r575920261-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>I was here for just one night for a business trip.  The hotel was great.  Bed was comfy, room was quiet, and it had a great layout. It was easy to find and the hotel staff was super friendly. I was very pleased with this place.More</t>
   </si>
   <si>
+    <t>ahanks84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r575906633-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -366,6 +393,9 @@
     <t>Its a true statement that not all hotels are equal, with as much as I travel, I can also confirm that not all hotels of the same brand/chain are equal. Since January 2018, I have stayed at Hampton Inn's in Michigan, Ohio, California and most recently this Hampton Inn in Richardson, TX. This hotel really stands out to me because it is very modern and very clean. The lobby itself is very inviting and comfortable, with lots of natural light, comfortable furniture and rounding everything out, the staff is also very friendly and helpful. My room was very clean and spacious, the layout was very aesthetically pleasing and most importantly the room was very quiet, which allowed me to get some uninterrupted work done and also sleep peacefully.More</t>
   </si>
   <si>
+    <t>Tim E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r574014294-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>Stayed here as part of a business trip.  The facility was in great shape.  Staff were VERY friendly.  Our rooms had a nice work surface.  Breakfast was very tasty.  Didn't get a chance to try internet or fitness center.</t>
   </si>
   <si>
+    <t>Jair B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r573368684-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t xml:space="preserve">The atmosphere in this place was very nice. The room was very spacious, clean, and stylish. I really enjoyed my stay, as staff made it very pleasant and confortable as if i never left home. The manager, Jonathan, is awesome!! Leticia, is a rockstar employee and should be promoted! They’re fortunate to have such an upbeat  and top notch professionals working for them. I Hope they recognize their talents! I would definitely recommend this hotel to anyone seeking a confortable, professional, and peaceful atmosphere. Definitely a home away from home! I will definitely stay here again! </t>
   </si>
   <si>
+    <t>ludmirtravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r573341610-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>Excellent hotel for my business stay.  Hotel was very clean and staff was very helpful.  It was also the perfect location for my business meeting.  Check in and checkout were very fast and efficient.  Breakfast was delicious.</t>
   </si>
   <si>
+    <t>Dakotatex12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r572311404-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>When attending a conference and associated meetings in th Richardson / Plano area this new Hampton Inn was given a try.  With easy access to US75, this lodging is far enough off to offer peace and quiet.  Very professional staff together with very good accommodations make this Hampton Inn a great find.</t>
   </si>
   <si>
+    <t>E T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r571577649-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>The specific HI-Richardson was relatively new and comfortable.My "beef" is with the pricing methodically!  I checked in on Sun and checked out on Tuesday. The daily room price increased on Monday...I assumed it was a business day and the demand would be higher during the week!  Wrong!  I did some PI work and discovered that the occupancy rate on both days were below 50%, which in my mine, deserves discount pricing and not a increase. By simple deduction, the daily increase pricing ideology is indicative of pure greed! Goodby HI...Hello daily rentals (stable pricing through your stay...something you can count/plan on!)!</t>
   </si>
   <si>
+    <t>AndMH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r568468893-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>LauraLynn2015r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r566525977-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>We chose this hotel because we like the fact that Hampton Inn has refrigerators and microwaves in the rooms, and a complimentary breakfast. It was also very close to family we were visiting. It’s a fairly new hotel in a quite area. Staff was friendly, room was clean, and we had a nice stay. On the down side, floors in the rooms are hardwood-like which look nice but we could hear neighbors walking around at night. There was a variety of options for breakfast that was well maintained. Definitely would stay here again.</t>
   </si>
   <si>
+    <t>SailoRM101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r561076992-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -489,6 +540,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>461jayneh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r559890696-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>This Hampton Inn is pretty good but not to the quality of others I have visited. The staff was friendly, but they would not perform simple acts of helpfulness that other Hampton Inns have provided. I was disappointed in the service.</t>
   </si>
   <si>
+    <t>Chris B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r559689145-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -522,6 +579,9 @@
     <t>We come in to town from New Mexico to visit family about once every 3 months or so. Since the first time we stayed here about a year ago, this is the ONLY hotel we will stay at from here on out. I’m not one to give a perfect rating to anywhere; whether it be a restaurant or hotel. But I legitimately can not find one negative thing to say about this hotel. The rooms are extra nice for the price, the location is quiet, but most importantly, the staff here is THE best I’ve ever encountered at a hotel. And it’s not just on one visit, or just one person. Every time we stay here, from management, to the front desk, to housekeeping, everyone here is awesome and super accommodating. It’s very hard to find superb service anywhere nowadays. So I really appreciate everyone here going the extra mile to make our stay here comfortable and enjoyable every single time. To the staff at Hampton Inn &amp; Suites Dallas/Richardson: Y’all are the real MVPs! Thank you, and we look forward to our next stay here. More</t>
   </si>
   <si>
+    <t>Q1806IAmichaelc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r559446266-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -537,6 +597,9 @@
     <t>This hotel has modern rooms, it’s comfortable, clean, great breakfast and very quiet. The staff is friendly. This is the place that I stay each time I am in Richardson on business. I would highly recommend.</t>
   </si>
   <si>
+    <t>rebecca_cleveland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r558466399-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -555,6 +618,9 @@
     <t>Convenient location, newer facility; I had high hopes.  The attention to detail is not there - stains on the concrete leading to the front door, room not ready at check in, extremely poor to non existent housekeeping - even after multiple requests/complaints.  Apparently, if you voice a concern regarding less than expected housekeeping, they just skip you completely the next day.  Front desk staff was extremely friendly but after two complaints and being told they would advise GM the next day, no contact has been made so I can only assume that they are not concerned about repeat business.  Our corporate offices are right around the corner and we all travel a lot to visit Richardson.  Fortunately, there are many other competitors in the area who seem to appreciate the business.  I'll be sure to let our team members know.More</t>
   </si>
   <si>
+    <t>Tiffany S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r556152621-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -576,6 +642,9 @@
     <t>I recently visited Dallas and stayed at the Hampton Inn &amp; Suites Dallas/Richardson. The beginning of my stay left much to be desired. I originally requested an early check in for my reservation but I understand that due to inclement weather that was not an option for my date of arrival. However the young lady at the front desk when I arrived did her best to alienate and frustrate me while conveying this information. Carmelita was not warm welcoming or friendly. Her attitude was very dismissive and and condescending. Every question I asked her was met with a deadpan response that indicated she didn’t really care about how to best service me. She left a horrible taste in my mouth for the duration of my trip. Every time my path crossed with hers it was a very negative experience. Luckily it seems she only worked mornings so I didn’t have to deal with her much. The afternoon and evening staff were much more pleasant and accommodating. They were very helpful and gave great recommendations for local sights and restaurants. The room we stayed in was a king bed which was very comfortable and clean. The hotel is fairly new and it was a pleasure to come back to this well appointed space after spending the day out. Outside of my terrible experience with Carmelita the only thing I wish was different was the ice machine. We were on the 3rd...I recently visited Dallas and stayed at the Hampton Inn &amp; Suites Dallas/Richardson. The beginning of my stay left much to be desired. I originally requested an early check in for my reservation but I understand that due to inclement weather that was not an option for my date of arrival. However the young lady at the front desk when I arrived did her best to alienate and frustrate me while conveying this information. Carmelita was not warm welcoming or friendly. Her attitude was very dismissive and and condescending. Every question I asked her was met with a deadpan response that indicated she didn’t really care about how to best service me. She left a horrible taste in my mouth for the duration of my trip. Every time my path crossed with hers it was a very negative experience. Luckily it seems she only worked mornings so I didn’t have to deal with her much. The afternoon and evening staff were much more pleasant and accommodating. They were very helpful and gave great recommendations for local sights and restaurants. The room we stayed in was a king bed which was very comfortable and clean. The hotel is fairly new and it was a pleasure to come back to this well appointed space after spending the day out. Outside of my terrible experience with Carmelita the only thing I wish was different was the ice machine. We were on the 3rd floor and for the entire duration of our stay the ice machine on our floor was out of order. It was slightly inconvenient to have to go up or down for ice every day. Other than that. Great stay. Mostly Great Staff. I would definitely return. More</t>
   </si>
   <si>
+    <t>Leighton D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r554873496-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -591,6 +660,9 @@
     <t>Very nice facility in a quiet suburb (construction is going on outside, but it is temporary &amp; was not disruptive). Daytime staff is very good; solid breakfast. Restaurants are not on site (probably whay they’re constructing at this newer facility), but Uber Eats is very familiar with the location.</t>
   </si>
   <si>
+    <t>Massagemom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r554700821-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -609,6 +681,9 @@
     <t>This was my first trip to Dallas Tx. I was visiting my son. My first encounter was on the phone making reservation. Both ladys I spoke with were friendly helpful and nice. When I arrived you can see there was construction going on next to the hotel. Not a big deal but nothing pretty to look at. Fortunately it was a holiday weekend so no work was being done. Check in was good. There was a glitch on my reservation. They had me in to different rooms. The way it was set up I would have had to change rooms the second day there. Carmenetta corrected it right away. She was very friendly. The room was very clean and nice. The morning complimenty breakfast was very good. I love the Texas shaped waffles! There is no other food service in the hotel. In the evening Denise was on and again she was very friendly and fun to talk with. The only glitch was the ATM machine didn’t work and my son ended up walking nearly 3/4 of a mile in the cold to get change for the laundry/ dryer! The other staff on duty said she couldn’t give him .75 and charge my room! Anyway the hotel was very quiet. Nothing to do there. There is a work out room which looked good. Also a data room with commuters. If it was warm the pool would be ok. Snack are...This was my first trip to Dallas Tx. I was visiting my son. My first encounter was on the phone making reservation. Both ladys I spoke with were friendly helpful and nice. When I arrived you can see there was construction going on next to the hotel. Not a big deal but nothing pretty to look at. Fortunately it was a holiday weekend so no work was being done. Check in was good. There was a glitch on my reservation. They had me in to different rooms. The way it was set up I would have had to change rooms the second day there. Carmenetta corrected it right away. She was very friendly. The room was very clean and nice. The morning complimenty breakfast was very good. I love the Texas shaped waffles! There is no other food service in the hotel. In the evening Denise was on and again she was very friendly and fun to talk with. The only glitch was the ATM machine didn’t work and my son ended up walking nearly 3/4 of a mile in the cold to get change for the laundry/ dryer! The other staff on duty said she couldn’t give him .75 and charge my room! Anyway the hotel was very quiet. Nothing to do there. There is a work out room which looked good. Also a data room with commuters. If it was warm the pool would be ok. Snack are on the exspensive side to me, $3.00 for a small bag of chips. Do your self a favor and bring your own snack and drinks. We did have a fridge and microwave in the room. Other then the laundry issue everything else was very good. More</t>
   </si>
   <si>
+    <t>Mountaingirl614</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r554090871-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -625,6 +700,9 @@
   </si>
   <si>
     <t>December 2017</t>
+  </si>
+  <si>
+    <t>Jaguarbeth</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r553359614-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
@@ -654,6 +732,9 @@
 The breakfasts are always one of my favorite things at Hampton Inn, and I enjoyed going out early each morning for my coffee and then the hot breakfast each morning that would follow.  Hampton always has a nice selection of warm foods, bagels and muffins, juices and more. The dining...I was visiting a friend over Dallas over Thanksgiving weekend and needed a good hotel to stay at near his apartment in the Campbell Avenue area. I am a big Hilton fan and found this hotel when searching for options through the main Hilton website. This location provided a convenient and comfortable stay during my long weekend visit! It is conveniently located off I-75 and Campbell Avenue in Richardson, and there are some great restaurants in the area too.Hampton Inn's always have great comfortable rooms with great beds. My room included a king bed and a small day bed to relax, read, and watch TV. The room also had a nice fridge and microwave for food, including the left overs I would bring back from my restaurant time.The front office staff were wonderful including Jasmine and other woman who were working throughout the holiday weekend. They recommended some great places to eat in the area while we were there (including Russo's, whom also deliver). There is a small gift shop adjacent to the front office area to buy water, snacks, and any other personal items you may need.The breakfasts are always one of my favorite things at Hampton Inn, and I enjoyed going out early each morning for my coffee and then the hot breakfast each morning that would follow.  Hampton always has a nice selection of warm foods, bagels and muffins, juices and more. The dining area was very nice and also a great place to hang out if you need to work on a laptop during non-meal time. There is always coffee/hot water for tea and also fruit infused water available 24/7.As it was Thanksgiving weekend, I received a note at my door the night before the holiday to say there would be limited housekeeping service on the holiday that following day. The letter said to let the front desk know in advance if I needed anything for that day, including fresh towels. The hotel was making sure their hard working staff had time off for the holiday to spend with their families and really liked that. Go Hilton!I really enjoyed my stay at this Hampton Inn, and if you are looking for a quiet and comfortable place to stay in the Richardson area for business or pleasure, this is your place!More</t>
   </si>
   <si>
+    <t>527elberth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r548957349-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -669,6 +750,9 @@
     <t>The Hampton Inn in Richardson is nearly new, and the facilities are in great shape.  We also love the delicious, hot Hampton breakfasts.  I wish the beds at Hampton Inns weren't quite so high--my only complaint.</t>
   </si>
   <si>
+    <t>Elizabeth F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r547782462-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -684,6 +768,9 @@
     <t>I regularly stay on Hilton properties and this one was disappointing. Due to cheap construction, footsteps, luggage, etc. and noise from the floor above were way too loud. I would avoid this hotel if you are a light sleeper or business traveler who needs a good quiet nights sleep. Staff was lovely but after three nights of interrupted sleep due to the family of six on the floor above me...ugh...</t>
   </si>
   <si>
+    <t>craigsK8184WX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r546244871-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -699,6 +786,9 @@
     <t>This hotel is a new hotel with modern styling and a friendly staff. However, my room was next to the pantry, room 110, so it was quite noisy beginning at 5 a.m. as they prepared for breakfast. It was also close to the maintenance room and I could hear the people going in and out of that room and also the people above us on the second floor. If you stay here, do not stay on the first floor. Breakfast was fairly good but the selection of fruit was very poor.</t>
   </si>
   <si>
+    <t>charlesgY9669BZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r545158484-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -714,6 +804,9 @@
     <t>This is an exceptional new property in the Richardson area.  Front desk staff is excellent.  The breakfast team is exceptional and the workout center has plenty of room.  The property is clean and welcoming. Great value !</t>
   </si>
   <si>
+    <t>davidhJ8735PX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r544719593-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -729,6 +822,9 @@
     <t>I really liked this hotel. It is very nice, and has a great location. Uber rides to local bars and restaurants were five bucks! The area of Dallas this hotel is in, is good and I felt safe. Local shops are also easy to get to.</t>
   </si>
   <si>
+    <t>Nannette G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r543943202-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -744,6 +840,9 @@
     <t>No service on Thanksgiving then very late service on other days.  Poor breakfast selection and service. Hotel location was excellent for family Thanksgiving.  Hotel is 7 months old but already had rust started on the outside of the shower.  Trash was not emptied.  Nice to have a frig and microwave in the room.  That is always a plus when traveling.</t>
   </si>
   <si>
+    <t>W7764FCdavew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r540089968-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -759,6 +858,9 @@
     <t>The hotel is realtively new, it is clean, modern and up-to-date. Like all other Hampton Inn, it provides complimentary self-served breakfast which is convenient for those of us who are always in a hurry. However, not all breakfast food items are replenished all the time so it depends on your luck. Overall, the hotel is a great value. It provides everything you need and it’s clean. I would definitely stay here again.</t>
   </si>
   <si>
+    <t>otalay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r539756486-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -783,6 +885,9 @@
     <t>Staff friendly, cookies are the best thing about this place,   free parking, bathrooms are small found small bugs in my bathroom sink then next night found a roach. Bar doesn't open till 430 even though the whole lobby is full watching football on their big screen.More</t>
   </si>
   <si>
+    <t>262run</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r539565374-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -820,6 +925,9 @@
   </si>
   <si>
     <t>Location counts, and this hotel is well-located. Apart from the proximity to both Dallas and Plano, it is several blocks from the highway noise, but easily accessible. The hotel has Hampton's recent modern room design, which we have encountered once before and really liked. We do not share the preference for walk-in showers, though, preferring the more traditional combination tub and shower.More</t>
+  </si>
+  <si>
+    <t>Mark A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r537921299-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
@@ -848,6 +956,9 @@
 The king-size bed...This hotel is quite new, and has some lovely new Hampton design features.  The bathroom has a wide, modern counter surface, and power outlets at each end of the counter, making it easy for two people to plug in electric toothbrushes, and such.  It also features a night lite that turns on when the overhead light is dark, and the customary hair dryer, towels, and amenities.We encountered good but inconsistent service, which we hope the property will improve.  Check-in/check-out was efficient and friendly, and the breakfast buffet was generally enjoyable.  The first morning, we enjoyed the usual eggs, etc., and the fresh fruit, which featured sliced strawberries.  The 24 hour available coffee was very good throughout our stay.  The second and third mornings, the strawberries were no longer sliced, and the single breakfast service person was barely sufficient to keep up with what customers needed.  They ran out of forks on morning #2, bagels on morning #3 (even though they knew they were sold out and should have planned for the number of guests staying there), and the server was frequently unavailable when we knocked on the employee-only door to ask for refills on 2% milk, and other items.Housekeeping was generally good (albeit not friendly), and our used paper cups were removed without being replaced.  The ice machine on our floor was also out of order, but the one on the floor above worked well.The king-size bed room was very nicely furnished; some might find it cramped, especially the toilet area.  The complimentary wi-fi (if you are HHonors, or book at the Hampton website) was quite adequate (about 5 megabytes/sec. download) and worked well with our Roku streaming.  The new TV was very large; rather than the customary 32", it was at closer to 50" and had great picture and sound quality.In summary:  Facilities very good; service average; overall -- still very good.More</t>
   </si>
   <si>
+    <t>557sukc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r537310829-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -872,6 +983,9 @@
     <t>The guests next door had active sexual activities that kept me up between 12-3am.  The walls were thin and not well insulated.  The rooms were clean and new, but did not get any sleep.  I did not know how to notify my guest besides banging at the wall which they ignored.More</t>
   </si>
   <si>
+    <t>jdsmith61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r536929004-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -890,6 +1004,9 @@
     <t>Great hotel, the staff was very friendly and helpful. The hotel was clean and very well kept! The room was very spacious and very clean. The breakfast was very good and the area was very clean also. I will stay here again for sure. More</t>
   </si>
   <si>
+    <t>932caroles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r535722186-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -908,6 +1025,9 @@
     <t>Room was a little smelly. Light fixture over sink in bathroom was out. No night light in bathroom. With that being said, everyone has an off day. Seemed to be short staffed. Front desk clerk seem to be a bit overwhelmed.  Great air conditioning.More</t>
   </si>
   <si>
+    <t>568catrinat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r533694681-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -926,6 +1046,9 @@
     <t>You won't want to leave, great service, clean hotel &amp; good food!!Family friendly as well!Near great places to shop, get things from the store, near the freeway and you will love the way they staff treats wether leisure or business!More</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r533215239-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1067,9 @@
     <t>Stay here for the Red River Rivalry. Found the hotel to be clean. The staff was very friendly. I picked the top floor so I could not hear people stomping when walking around but that did not seem to work heard it coming from the next room.The breakfast is your normal hotel food but was missing the meat, no sausage or bacon like others. We did find that our electrical outlets between the beds did not work. We let the desk know on checkout so hope they get that fixed for the next customer. Be aware that this hotel seem to be in the middle of an up and coming office area with nothing to eat or gas stations to be seen. I would stay here again depending on what and where I was going in the area.More</t>
   </si>
   <si>
+    <t>tamaramZ2641WY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r532530227-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -962,6 +1088,9 @@
     <t>Every year I visit Dallas for the state Fair. I normally stay in the same hotel every year however I stayed within 3 miles. I really enjoyed the new hotel! The staff was very friendly! The amenities were nice! The overall location was great! The quality of my stay was more than I expected! I do plan to stay at the hotel in the future! More</t>
   </si>
   <si>
+    <t>Chris H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r530818592-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1109,9 @@
     <t>I'm not big on 5's, but because of their service they get that.  I asked for suggestions on restaurants and not only got names, but the receptionist printed out the information.  Well done breakfast and clean, plus cookies at night, how can you beat that.  The picture says it all.More</t>
   </si>
   <si>
+    <t>G7773PXsandrab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r530403505-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1004,6 +1136,9 @@
     <t>Very clean and comfortable rooms.  Good free breakfast with hot food and continental breakfast options. Front desk and breakfast room staff were friendly.  Incredible value for the price.  Multiple HBO and Showtime channels in the room.More</t>
   </si>
   <si>
+    <t>FawziaEssa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r528818475-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1037,6 +1172,9 @@
     <t>Hotel is new, clean and fresh rooms, staff were friendly and breakfast was good with a good selection. No complaints about this hotel. No restaurants within walking distance , this hotel is in a new area being built up.More</t>
   </si>
   <si>
+    <t>Erin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r527106000-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1193,9 @@
     <t>Stayed here to go to training for my job. I stayed in one of the suites with kitchenette. The staff were wonderful...very helpful and everyone I interacted with was super nice. The room was very clean and spacious. It was nice to have the extra room even though I was staying there by myself but was for the entire work week. Made it feel more like home. More</t>
   </si>
   <si>
+    <t>I7410XCjamesm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r524442064-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1220,9 @@
     <t>Can't say enough about the amazing staff here, I usually don't stay anywhere else. Always greet anyone with a smile and help you in what ever way you can. The breakfast is free and rooms are always clean and well kept hotel.More</t>
   </si>
   <si>
+    <t>Kelley L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r524193070-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1241,9 @@
     <t>We loved this hotel. The breakfast was great. The pool was clean and pretty. The rooms were also nice. The only downfall was that the water pressure for the shower was low. We weren't used to that but we would definitely visit again anytime we're in the Dallas area.More</t>
   </si>
   <si>
+    <t>claudiadZ8531KH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r523695717-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1262,9 @@
     <t>Clean &amp; comfortable, very satisfied! Definite recommend over other hotel chains with the same price. New,  modern decor, many restaurants nearby. Staff was friendly. Very convenient laundry room on-site. More</t>
   </si>
   <si>
+    <t>khamilton615</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r523231581-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1283,9 @@
     <t>Far but I loved the service and cleanliness of the hotel. I would definitely stay here again. The parking was good. The pool was clean and beautiful. The breakfast was good too. My family really enjoyed themselves. More</t>
   </si>
   <si>
+    <t>Charles D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r522328677-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1178,6 +1331,9 @@
     <t>This is a new hotel, conveniently located to Hwy 75. Room rate was reasonablely priced.  The room was clean and well furnished, featured  a sliding bathroom door, not my favorite. Complimentary breakfast was good. Parking lot was well lit.More</t>
   </si>
   <si>
+    <t>miyeshaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r517274594-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1199,6 +1355,9 @@
     <t>It was very quiet during out stay.  Even during the day it was quiet.  We had a long drive to get to our hotel, but it was worth it!  Beds were soft and comfy.  Slept like a baby!  Couldn’t as for a better stay!More</t>
   </si>
   <si>
+    <t>LonrRanger444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r516147256-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1382,9 @@
     <t>My room was on sale and after the hidden fees ($30 per night) plus the room. It wasn't on sale but $50 higher than sale price on the internet hotel page. Staff was terrible and didn't even know how to get to the hotel. Hallway smelled like a male cat sprayed the whole hallway and staff didn't care. NO hot water the first night for a shower after driving all day.More</t>
   </si>
   <si>
+    <t>Carlos S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r509912324-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1400,9 @@
     <t>This property has great location, extremely clean, great breakfast/meeting area.  The rooms are state of the are design, very clean and bright.  The staff at this property is outstanding and always ready to serve.  Highly recommended to anyone looking for a great hotel in the local area.</t>
   </si>
   <si>
+    <t>W927NApeterh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r507981697-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1253,6 +1418,9 @@
     <t>Staff inexperienced to run a hotel.   Breakfast food ran out each day before breakfast end time.   Coin laundry room no coin changer nor fornt desk had any change.   Room not made up.  Otherwise room was clean and air conditioner was working properly as TX was in a heat spell.</t>
   </si>
   <si>
+    <t>CherylS932</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r505684637-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1268,6 +1436,9 @@
     <t>We have used this property before and have been happy with it each and every time. Not really a lot more to add.    Staff is always helpful and attentive.  I wish this property as well as many others would figure breakfast out.  It is enough to get you by, but hardly delicious  I do not, however pick a hotel because of its breakfast.</t>
   </si>
   <si>
+    <t>Dee G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r504841110-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1286,6 +1457,9 @@
     <t>Stayed at same property two months ago and am a Honors member.  Didn't have a reservation, but ot didn't look like it was full.  Desk quoted price and I said I was Honots member.  She asked for card which I never got so i asked to look me up by name.  Even with ID and CC she could not find any information I ever stayed there. After handing my ID back I sat down to find my number.  When I told her the number she said that was not it.  I insisted and when she entered the number she said that's not the name you gave me.  Remember she had my DL and CC both in same name... I may be confused about many things, but I really do know my name.  So Hampton Inn, this time you get booed because customer is right about my name and my ID proves it!  Also, get a product that cleans rust out of the shower.  It is not that complicated!More</t>
   </si>
   <si>
+    <t>Steven P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r503325141-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1475,9 @@
     <t xml:space="preserve">Nice room and clean. Problem was that it smelled bad. Plus air conditioner unit was on off all night with no ability to control temperature. Room was hot and cold all night. In addition Tv remote was worthless. </t>
   </si>
   <si>
+    <t>shaelyn n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r503383901-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +1490,9 @@
     <t>Loved this place! Very new and close to UT Dallas where we were attending a soccer camp. Great dining and shopping close by. Loved the fitness center and decor was relaxing. Decent breakfast in the morning. Staff was lovely. Great value! I will definitely return when I'm in the area</t>
   </si>
   <si>
+    <t>traveladdict468</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r502477852-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1508,9 @@
     <t>Brand new hotel.  Very big workout gym.  Small outdoor pool.  10 minutes drive to restaurants and shopping center.  Everything went great until we found a live spider crawled on our blanket.  We reported to the front desk lady and she didn't seem to be cared about the problem too much more seem apologetic to us.  Very disappointed and it seemed like we experienced this type of service lately at most of Hilton properties we stayed.</t>
   </si>
   <si>
+    <t>jennymcdaniel64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r499464051-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1349,6 +1532,9 @@
     <t>We requested a handicap accessible room with a roll-in shower. The room was accessible, but there was no bench in the shower. The manager was extremely helpful and went to Walmart late that night and purchased a shower bench for that room, so I was able to shower the morning after we checked in. However, the bed was so high that I was unable to get in the bed from my power wheelchair without my husband lifting me up into the bed. The height was at least 27" high. My chair is about 21" high. Hampton Inn has a history of having high beds, even in their ada rooms. I just don't understand why. We discussed this with the GM. She later comp'd our entire stay.More</t>
   </si>
   <si>
+    <t>shaquaviaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r496635859-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1364,6 +1550,9 @@
     <t>If you're looking for a recently opened hotel with awesome staff and clean rooms...this is your place! My family and I enjoyed our stay, in the event we travel to the area again, this will be our hotel.</t>
   </si>
   <si>
+    <t>kunu252</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r496006800-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1382,6 +1571,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>cjblues54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r492859209-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1589,9 @@
     <t xml:space="preserve">So dissatisfied with this hotel....1st night the room was never cleaned...pool was dirty..... not happy with the breakfast ...no sugar packets.... no plain black tea... food was always empty ....had to ask to have it fill! </t>
   </si>
   <si>
+    <t>Me9247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r492533248-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1610,9 @@
     <t>Stayed here one night with my father.  It is a new hotel.  A different design for Hampton Inn.  Staff was friendly. They provide bottle of water for Hilton Honor members even if only blue status. The breakfast is the standard for all Hampton Inns.  The sound proofing isn't the best.  We could hear our neighbors and the people above us all night.  The price is good.  Has a workout room, a business center and an outdoor pool.  The room has a unique slide door for the bathroom and closet.  You can hear everything happening in the bathroom.  A tad odd when sharing a hotel room.  Room has a refrigerator.  Wifi works well in the rooms.  We will be staying here again.  We will be back once a month for a few months to visit sick family.More</t>
   </si>
   <si>
+    <t>J5654ROjosephs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r492523143-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1625,9 @@
     <t xml:space="preserve">We were in Dallas for a University of Texas softball combine. Got in on a Monday night very late, checked in in a matter of minutes, then was able to get some great sleep before an early all day camp. </t>
   </si>
   <si>
+    <t>Roberta F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r492643636-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1437,6 +1638,9 @@
   </si>
   <si>
     <t>Originally found the location on my company's travel site and selected because it was new and close to the client location.  I was pleasantly surprised and, on my next trip, recommended it to my peers who also stayed there.  It works well for business and the breakfast selection is really good.</t>
+  </si>
+  <si>
+    <t>R492IUleec</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r491602711-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1479,6 +1683,9 @@
 I stayed here multiple times and had a different room each time. The first time I checked in I picked a King room but it was an accessible room. The e-check in didn't have that information and the front desk actually upgraded me to the suite room that week. The other times, I had a standard King room and one partially accessible room that had a slightly bigger bathroom with a drain in the floor and a detachable shower head. I usually don't like taking these rooms but it wasn't the worst. The rooms are set up with sliding door to the bathroom. I'm not a fan of these as there is no way to shut the door fully and they always seemed to be off just a little. Not the end of the world but if you are staying with someone, it's nice to be able to close the door. I was by myself so it wasn't a big...I am at a client in the Addison area and all the Hilton hotels in this area are a bit dated. I looked at a new hotel in Richardson, the Hampton Inn. It was a little drive from my office but when there is a nice hotel, it is worth the drive. The lobby is like the newer Hampton's and very well lit and spacious. The staff is excellent and the check in went very quick (I did e-check in). I stayed here multiple times and had a different room each time. The first time I checked in I picked a King room but it was an accessible room. The e-check in didn't have that information and the front desk actually upgraded me to the suite room that week. The other times, I had a standard King room and one partially accessible room that had a slightly bigger bathroom with a drain in the floor and a detachable shower head. I usually don't like taking these rooms but it wasn't the worst. The rooms are set up with sliding door to the bathroom. I'm not a fan of these as there is no way to shut the door fully and they always seemed to be off just a little. Not the end of the world but if you are staying with someone, it's nice to be able to close the door. I was by myself so it wasn't a big deal. Not all the showers were tub/shower combos like most hotels. They did have some built in showers (i like the tub with the curtain personally as it gives you more room. The room did have outlets (on one side of the bed only) and at the desk for charging your electronics. Not sure why both sides didn't have it though. Each of my rooms had a good set up for the desk and watching tv while working. One of the biggest complaints I have is their storage for your clothes. They have 3 baskets for all your folding clothes. No way could I stay there with more than myself and have enough room for clothes. I've attached a picture to show what they have. They really should change this to have some actual drawers. Stuff can fall through the wire baskets if small and the night stands don't have any storage either. So you are limited to just the 3 baskets even if you have 3 people in the room.  The workout facility was nice and big. Again like the new Hampton's it is about 2 room widths with treadmills, elliptical and a bike with some dumbbells and mats. You don't feel crowded in there at all. The breakfast is typical Hampton fare but one thing I don't like is the milk is in containers that are supposed to keep it "cold" but the milk was always "warm to me. Other Hampton's have cartons...More</t>
   </si>
   <si>
+    <t>Lblackwelly2j4me</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r489061387-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1501,6 +1708,9 @@
 The notes left on the reservation should have been read and my husband should have been notified if they couldn't accommodate a late check out as requested WHEN HE CHECKED IN, not the day of when he was trying to sleep. Management on the phone was rude and didn't...My husband is an ER Physician in the area and he had to work two night shifts. When I called to make the reservation, they told me it wouldn't be a problem to have a 3:00 checkout so as long as the property still had plenty of availability. On the day of departure and all well before standard check out on noon, house keeping was knocked on the door serval times; then, the manager on duty called  him and told him he needed to leave. I called Hampton Inn and explained to her the reservation notes and she was rude and told me he could only stay until 2:00 and she wouldn't charge extra "this time". When I made the reservation, I asked the booking agent it if there was an extra charge and she said no, as long as there is still plenty of room. After I booked the room, I called Hampton Inn directly to confirm the requests and availability on the day of booking!) At that point, he was already awake from all the interruptions so he just packed his belonging and left after sleeping only 4 hours. The notes left on the reservation should have been read and my husband should have been notified if they couldn't accommodate a late check out as requested WHEN HE CHECKED IN, not the day of when he was trying to sleep. Management on the phone was rude and didn't even as much as offer an apology for the confusion or inconvenience. This speaks volumes for the lack of customer service and how poorly they responded to a situation that should have never been an issue had the reservation notes been read. More</t>
   </si>
   <si>
+    <t>Katherine Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r487855973-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1516,6 +1726,9 @@
     <t>We have stayed at Hampton Inns before, so we were expecting a clean, comfortable hotel, and that is what we found.  There were a few questionable building choices in the bathroom, but everything was clean and worked properly.</t>
   </si>
   <si>
+    <t>karenbT9791JG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r486738331-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1531,6 +1744,9 @@
     <t>Hotel staff were very pleasant, rooms were clean and ready upon check-in, ask for a late check out which was quickly accommodated. Breakfast was hot and fresh.  I travel frequently for work and would say this location has been one of the best.</t>
   </si>
   <si>
+    <t>patelmeh2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r486020461-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1546,6 +1762,9 @@
     <t xml:space="preserve">Everything was perfect.  The hotel was very clean and exceptionally decorated.   Rooms are probably the best I have seen for Hilton including higher end lines.  However shower head was very cheap.  Ruined a very nice bathroom experience over poor shower.  </t>
   </si>
   <si>
+    <t>459ellena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r485816157-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1561,6 +1780,9 @@
     <t>This hotel is newly constructed so everything is beautiful. The staff is extremely friendly and helpful and they do all they can to make it feel like you are at home. The location for my business in Richardson is fabulous easy on and off the frewways and lots of places to eat near by.</t>
   </si>
   <si>
+    <t>Joann D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r484761836-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1576,6 +1798,9 @@
     <t xml:space="preserve">The hotel was beautiful and they take care of their diamonds members well. The breakfast was great. The rooms beautiful. New hotel. Only thing was the lady that checked us in needs to work on her people skill. </t>
   </si>
   <si>
+    <t>ROMINTWO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r484727038-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1588,6 +1813,9 @@
     <t>Everything during our stay was very nice.  The help were all courteous and helpful.  The breakfast was excellent and we found that the whole experience was pleasant. Good value. The beds y pillows were comfortable.  The Towels  are good.</t>
   </si>
   <si>
+    <t>charlesedwardk2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r484835555-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1600,6 +1828,9 @@
     <t>We did not like the fact that there were no real drawers in the room only 2 wire baskets. Bathroom door was set up for dual purpose closet and bathroom. Bathroom side did not have a snug fit made for a lack of total privacy. But overall the stay was good. The breakfast was very good!</t>
   </si>
   <si>
+    <t>STEVE D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r484835552-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1615,6 +1846,9 @@
     <t>I had a problem in this accessible room with the roll in shower and the wall mounted seat provided.  It was just barely hanging in the wall and had I not seen that before transferring to the seat from my wheelchair, in my estimation i would have further injured myself.  I spoke to Martha Morales the GM who seemed as though I was bothering her.  I have no idea if this issue was repaired.  I checked two days later and the room was already occupied again.  To repair this problem properly, there would have been tiles removed, bracing installed, tiles replaced, etc...  I don't have a high level of confidence that this issue has been resolved and if so, I would be very leary of room 103.More</t>
   </si>
   <si>
+    <t>Charlotte B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r484393514-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1630,6 +1864,9 @@
     <t>We came in without a reservation. The staff politely got all of our information and found us a room. The bed was super comfortable and we were able to set the room temperature to our preferences. In the morning, there was a full breakfast with bacon and eggs. The dining area was nice and inviting with local as well as national news playing. There were multiple choices of coffee and tea.</t>
   </si>
   <si>
+    <t>88eileenn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r482500178-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1645,6 +1882,9 @@
     <t xml:space="preserve">The wedding reception venue &amp; Hampton Inn was in same parking lot.  Thus, very convenient for Minnesotans staying at the Hampton Inn in Richardson, Texas.  Great selection by bride &amp; groom to consider guests from out-of-state. </t>
   </si>
   <si>
+    <t>timhJ2370ZC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r482526638-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1657,6 +1897,9 @@
     <t>Staff and accommodations were exceptional.  No matter day or night, even late night, the staff allowed our family reunion of sorts to congregate in the lobby and never made us feel uncomfortable.  They were great...</t>
   </si>
   <si>
+    <t>F5700IPjohnh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r481460321-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1672,6 +1915,9 @@
     <t>Super helpful staff they did a great job of taking care of our family in the lobby area in the evening after hours. They were courteous professional and did a great job of taking care of us. We're looking forward to our next stay and we know it's going to be wonderful.</t>
   </si>
   <si>
+    <t>O3540URadriang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r481140477-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1687,6 +1933,9 @@
     <t>Very clean and new. Breakfast was amazing, great potatoes and variety. This hotel is in a nice location near a lot of restaurants and walking paths. The cleaning staff was somewhat loud when entering other rooms therefore I put a do not disturb hanger up.</t>
   </si>
   <si>
+    <t>heathere946</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r479347841-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1702,6 +1951,9 @@
     <t>This new hotel was wonderful!  We were in town for a volleyball tournament and the location was great. The staff was amazing during our entire stay and the facility is new, fresh and clean. Highly recommend!</t>
   </si>
   <si>
+    <t>U6540KApaulc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r479263010-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1714,6 +1966,9 @@
     <t>We arrived at the hotel at 3:00pm, asked if we could get a top floor and our request was honored and thank you to Sabrina at the front desk. The room was clean and comfortable. Housekeeper was there every day during our stay. Close to shops and restaurants, in quiet area.</t>
   </si>
   <si>
+    <t>stevendb2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r479000169-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1741,6 +1996,9 @@
     <t>This property is brand new and state of the art atmosphere and staff.  The rooms are super modern, spacious, and perfectly laid out.  Breakfast area is outstanding well lit and great to relax.   Fitness center is large and great equipment.  The new team at this property rocks and should be proud to be part of the Hilton Family!</t>
   </si>
   <si>
+    <t>Bettyrub</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r477671739-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1756,6 +2014,9 @@
     <t>We ended there for 3 weeks. The staff was so nice we got great recommendations for places to eat. Hotel was clean. Leslie and her team do a great job running the hotel. Lots of choices for free breakfast.</t>
   </si>
   <si>
+    <t>Alan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r474459720-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1771,6 +2032,9 @@
     <t>Excellent accommodations. Very clean. Very helpful staff. Good breakfast, particularly the large Texas-shaped waffles. Exercise room was nice and roomy. Beds were comfortable. I like the location as it is a building area with mostly office buildings and new apartments, and other hotels.</t>
   </si>
   <si>
+    <t>ronaldsS4488LD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r473942084-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1786,6 +2050,9 @@
     <t xml:space="preserve">Our stay involved moving to four different rooms due to difference issues. First issue, room not cleaned, move to new room. Second issue,  we lost power the first night, move to new room. Third issue, A/C  thermostat did not work, move to new room.  I think that all the issues were simply the result of this being a brand new hotel and all of the bugs have not been worked out. The hotel is in a safe and quiet  Area and only a few blocks from the DART train station. So I still rate as very good.  But check out your room before unpacking. </t>
   </si>
   <si>
+    <t>BlairCher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r473737660-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1801,6 +2068,9 @@
     <t>A recently opened hotel with none of the glitches you might expect.   Beautifully streamlined decorating in the room and bathroom and wonderful matress that we've come to expect of a Hampton Inn. We will definitely stay here again.</t>
   </si>
   <si>
+    <t>jasag00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r472991305-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1816,6 +2086,9 @@
     <t>Brand new, clean, and has very friendly staff.  Nice workout room and small outdoor pool.  No walkable restaurants.  Short drive to shopping and restaurants nearby.  5-10 minutes from UT Dallas.  Would stay here again.</t>
   </si>
   <si>
+    <t>Tamara G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r472963193-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1828,6 +2101,9 @@
     <t xml:space="preserve">This was a nice and clean hotel.  The staff was nice friendly and accommodating and the rooms were nice and clean. The complementary breakfast was a nice bonus.  There were plenty of nice restaurantsl and shops close by. </t>
   </si>
   <si>
+    <t>W6094MZthomast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r470207442-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1852,6 +2128,9 @@
     <t>This Hampton Team was on point and the staff from the front desk to the wonderful cleaning team that was working on the 4th floor was on point with the guest. what a bright and wonderful place to come and relax. Thank You Hampton Richardson Team.More</t>
   </si>
   <si>
+    <t>162tamarat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r469008515-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1870,6 +2149,9 @@
     <t>Peeling wallpaper , improperly installed fixtures that were broken, missing fixtures, horrible workmanship, not enough trash cans anywhere in the facility,not what we have come to expect from Hsmpton Inn!More</t>
   </si>
   <si>
+    <t>jonahNJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r468850630-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1885,6 +2167,9 @@
     <t>This hotel opened in early 2017 and provided excellent accommodations during my most recent visit to Richardson. The manager, Cynthia Young, was outstanding during my check in and provided an excellent overview of the hotel. The lobby is very spacious and is adjacent to the large room where breakfast is served. The breakfasts include a variety of cold cereals, oatmeal, breads, bagels, breakfast meats, potatoes, fruits and a selection of hot and cold beverages. The area was well maintained and the food was fresh and replenished as necessary. My room was quite comfortable and was spotlessly clean. I was particularly impressed with the cleanliness of the bathroom. The room included several electric outlets with USB ports, which are conveniently located. I had a nice sized mini refrigerator as well as a microwave and a tea/coffee set. The wifi was included and worked flawlessly during my stay. On the first floor of the hotel was a nice fitness room. The room included 3 treadmills, 2 elliptical machines, a recumbent cycle and a rack of free weights. Towels are provided and the room was spacious and clean with 2 large flat panel televisions. This will now be my go to hotel when visiting Richardson.More</t>
   </si>
   <si>
+    <t>Steve R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r469023220-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1900,6 +2185,9 @@
     <t>extremely close to Love Air, 40 min drive to DFW (in rush hour), numerous great food locations close by (non-walking though). Huge parking lot.  Close to major highways, but far enough that you dont hear noise.More</t>
   </si>
   <si>
+    <t>billyc823</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r465975415-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2206,9 @@
     <t>I had a great experience at this hotel.  It was clean, in a convenient location, and the staff was very helpful and friendly.  I was within 5 minutes of lots of great eating establishments. Thank you for another great travel experience.More</t>
   </si>
   <si>
+    <t>Dennis M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r465425562-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1936,6 +2227,9 @@
     <t>Nice new facility conveniently located with easy access to George Bush Tollway and Hwy 75 and the DART rail line for quick access to downtown Dallas. Plenty of restaurants in the area and close to the new City Line RichardsonMore</t>
   </si>
   <si>
+    <t>lindapY4348HE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r464548161-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1957,6 +2251,9 @@
     <t>The hotel is only a month old (Feb. 2017). Our room was not completely finished. The kitchen staff serving the free breakfast were not keeping the food items replenished. We had to ask for eggs, sausage, syrup, bagels etc. both mornings. The coffee was always cold and had to be refilled in the canisters. More</t>
   </si>
   <si>
+    <t>RGeneB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r463634535-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1975,6 +2272,9 @@
     <t>This is a new hotel so maybe service will improve. Rooms are very small.  Our room was not cleaned by house keeping and when we reported the problem we were told that house keeping has not been trained to clean the entire room.  There are no vending machines on the floors so if you want water or a soda you must go to the front desk. The breakfast area is not kept clean. This is a new hotel so maybe service will improve.More</t>
   </si>
   <si>
+    <t>866josha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r463383963-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1990,6 +2290,9 @@
     <t>This was a top notch facility. Best looking Hampton Inn I've ever stayed in. CLEAN The workout facility was great and well maintained. The overall look was what we enjoyed. Staff was helpful and friendly.</t>
   </si>
   <si>
+    <t>John G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r462605942-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2008,6 +2311,9 @@
     <t>I had a rare occasion where I had to be in Dallas for a night and ended up staying at this property.  This is a brand new Hampton.  I was really impressed with everything... &amp; I mean everything.  They have a very well lit parking lot. New decor ( which is nice to see that Hilton has chosen more muted colors with a splash of accent colors.)Shower was amazing. My suite had a sliding glass door and a very cool drain.  it was a plate that was inset into the tub.  very unique.  The hotel was very quiet.  Staff was on point.  I even had a manager compliment me on my tie.. (details.. all about the details with me.)I would highly recommend staying there.  There is a Whole Foods, Starbucks and other shopping/restaurants within a mile of this hotel.  Its nestled behind some buildings, but close enough to central expressway (highway 75) so you don't hear any freeway noise.  Everything else is pretty much what you would expect from a Hampton when comes to breakfast, coffee, etc.  If I am ever in Dallas again, in that area, Ill be sure to stay here again!More</t>
   </si>
   <si>
+    <t>Mark L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r461626115-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2032,6 +2338,9 @@
     <t>recently opened location, does not yet live up to the usual standards for this chain, I supposed they'll get there eventually though suspect there will be changes in management staff to achieve this. There was still construction dust/debris along the baseboards and the windows were wiped down with a dirty rag, evidence of no housekeeping oversight.More</t>
   </si>
   <si>
+    <t>jimmyj970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r457046655-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2051,6 +2360,9 @@
   </si>
   <si>
     <t>Stay was pleasant and relaxing. Staff friendly and helpful. Accommodations were new and beds very comfortable. Located close enough to downtown Dallas. A nice variety of entertainment and places to eat close by.More</t>
+  </si>
+  <si>
+    <t>B7276ZQkimberlyg</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d10353040-r456729179-Hampton_Inn_Suites_Dallas_Richardson-Richardson_Texas.html</t>
@@ -2573,43 +2885,47 @@
       <c r="A2" t="n">
         <v>64571</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>88627</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2633,50 +2949,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64571</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2688,56 +3008,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64571</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>140546</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2761,50 +3085,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64571</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>140547</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2828,50 +3156,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64571</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>140548</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2895,50 +3227,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64571</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>140549</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2960,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2979,37 +3315,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
         <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>87</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3031,56 +3367,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64571</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>5025</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3102,56 +3442,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64571</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>35511</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3167,56 +3511,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64571</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>140550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3238,56 +3586,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64571</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>34268</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3311,50 +3663,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64571</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>140551</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3368,50 +3724,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64571</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>140552</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3435,50 +3795,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64571</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>140553</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3502,50 +3866,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64571</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>140554</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3563,50 +3931,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64571</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>140555</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3626,50 +3998,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64571</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>140556</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3683,50 +4059,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64571</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>140557</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3746,50 +4126,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64571</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>140558</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3813,50 +4197,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64571</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>6529</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3870,50 +4258,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64571</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>140559</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3937,50 +4329,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64571</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>140560</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4004,50 +4400,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64571</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>4205</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4061,50 +4461,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64571</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>140561</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4128,50 +4532,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64571</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>140562</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4195,50 +4603,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64571</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>140563</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4258,50 +4670,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64571</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>140564</v>
+      </c>
+      <c r="C28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4319,50 +4735,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64571</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>140565</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4386,50 +4806,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64571</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>5549</v>
+      </c>
+      <c r="C30" t="s">
+        <v>242</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4453,50 +4877,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64571</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>140566</v>
+      </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4510,50 +4938,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64571</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>140567</v>
+      </c>
+      <c r="C32" t="s">
+        <v>254</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4577,50 +5009,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64571</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>140568</v>
+      </c>
+      <c r="C33" t="s">
+        <v>260</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
         <v>234</v>
       </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>208</v>
-      </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4644,50 +5080,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64571</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>72687</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4711,50 +5151,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64571</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>140569</v>
+      </c>
+      <c r="C35" t="s">
+        <v>272</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4778,50 +5222,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64571</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>140570</v>
+      </c>
+      <c r="C36" t="s">
+        <v>278</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="J36" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="K36" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4833,56 +5281,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="X36" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="Y36" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64571</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>140571</v>
+      </c>
+      <c r="C37" t="s">
+        <v>287</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="J37" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4900,7 +5352,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
@@ -4913,37 +5365,37 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4965,56 +5417,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="X38" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="Y38" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64571</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3949</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -5032,56 +5488,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="X39" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="Y39" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64571</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>140572</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5103,56 +5563,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="X40" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Y40" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64571</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>140573</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5164,56 +5628,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="X41" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Y41" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64571</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>140574</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O42" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5235,56 +5703,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="X42" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Y42" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64571</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>140575</v>
+      </c>
+      <c r="C43" t="s">
+        <v>331</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>293</v>
       </c>
-      <c r="J43" t="s">
-        <v>294</v>
-      </c>
-      <c r="K43" t="s">
-        <v>295</v>
-      </c>
-      <c r="L43" t="s">
-        <v>296</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>258</v>
-      </c>
       <c r="O43" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5306,56 +5778,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="X43" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Y43" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64571</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C44" t="s">
+        <v>338</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="J44" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5373,56 +5849,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="X44" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Y44" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64571</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>140576</v>
+      </c>
+      <c r="C45" t="s">
+        <v>345</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="J45" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5444,56 +5924,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="X45" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Y45" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64571</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>265</v>
+      </c>
+      <c r="C46" t="s">
+        <v>352</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="J46" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="K46" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5505,56 +5989,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="X46" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Y46" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64571</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>140577</v>
+      </c>
+      <c r="C47" t="s">
+        <v>359</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5576,56 +6064,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="X47" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="Y47" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64571</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>140578</v>
+      </c>
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="J48" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5643,50 +6135,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64571</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>140577</v>
+      </c>
+      <c r="C49" t="s">
+        <v>368</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="J49" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="K49" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5708,56 +6204,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="X49" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="Y49" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64571</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>13475</v>
+      </c>
+      <c r="C50" t="s">
+        <v>380</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="K50" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="O50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5779,56 +6279,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="X50" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="Y50" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64571</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>140579</v>
+      </c>
+      <c r="C51" t="s">
+        <v>387</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="K51" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5850,56 +6354,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="X51" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="Y51" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64571</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>22979</v>
+      </c>
+      <c r="C52" t="s">
+        <v>396</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="J52" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="K52" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5911,56 +6419,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="X52" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="Y52" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64571</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>140580</v>
+      </c>
+      <c r="C53" t="s">
+        <v>403</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="J53" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="K53" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5982,56 +6494,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="X53" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="Y53" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64571</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>38028</v>
+      </c>
+      <c r="C54" t="s">
+        <v>410</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="J54" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="O54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6053,56 +6569,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="Y54" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64571</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>25820</v>
+      </c>
+      <c r="C55" t="s">
+        <v>417</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6120,13 +6640,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="X55" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="Y55" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56">
@@ -6139,37 +6659,37 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
+        <v>425</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s">
+        <v>426</v>
+      </c>
+      <c r="J56" t="s">
+        <v>427</v>
+      </c>
+      <c r="K56" t="s">
+        <v>428</v>
+      </c>
+      <c r="L56" t="s">
+        <v>429</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
         <v>374</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
-        <v>375</v>
-      </c>
-      <c r="J56" t="s">
-        <v>376</v>
-      </c>
-      <c r="K56" t="s">
-        <v>377</v>
-      </c>
-      <c r="L56" t="s">
-        <v>378</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4</v>
-      </c>
-      <c r="N56" t="s">
-        <v>329</v>
-      </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6191,56 +6711,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="X56" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="Y56" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64571</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>140581</v>
+      </c>
+      <c r="C57" t="s">
+        <v>433</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="J57" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="K57" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6262,56 +6786,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="X57" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="Y57" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64571</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>140582</v>
+      </c>
+      <c r="C58" t="s">
+        <v>441</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="J58" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="K58" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6331,56 +6859,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="X58" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="Y58" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64571</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>19841</v>
+      </c>
+      <c r="C59" t="s">
+        <v>450</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="J59" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="K59" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6404,50 +6936,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64571</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>140583</v>
+      </c>
+      <c r="C60" t="s">
+        <v>456</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="J60" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="K60" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="L60" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6471,50 +7007,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64571</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>140584</v>
+      </c>
+      <c r="C61" t="s">
+        <v>462</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="J61" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="K61" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="L61" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="O61" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6538,50 +7078,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64571</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C62" t="s">
+        <v>468</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="J62" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="K62" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="L62" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6605,50 +7149,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64571</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>83458</v>
+      </c>
+      <c r="C63" t="s">
+        <v>475</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="J63" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="K63" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
       <c r="L63" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="O63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6672,50 +7220,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64571</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>140585</v>
+      </c>
+      <c r="C64" t="s">
+        <v>481</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" t="s">
+        <v>478</v>
+      </c>
+      <c r="K64" t="s">
+        <v>484</v>
+      </c>
+      <c r="L64" t="s">
+        <v>485</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
         <v>423</v>
       </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" t="s">
-        <v>424</v>
-      </c>
-      <c r="J64" t="s">
-        <v>420</v>
-      </c>
-      <c r="K64" t="s">
-        <v>425</v>
-      </c>
-      <c r="L64" t="s">
-        <v>426</v>
-      </c>
-      <c r="M64" t="n">
-        <v>5</v>
-      </c>
-      <c r="N64" t="s">
-        <v>372</v>
-      </c>
       <c r="O64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6739,50 +7291,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64571</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>140586</v>
+      </c>
+      <c r="C65" t="s">
+        <v>486</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="J65" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="K65" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="L65" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="O65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6796,50 +7352,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64571</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>140587</v>
+      </c>
+      <c r="C66" t="s">
+        <v>492</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="J66" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="K66" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6857,50 +7417,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64571</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>140588</v>
+      </c>
+      <c r="C67" t="s">
+        <v>500</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="J67" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="K67" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="L67" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6924,50 +7488,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64571</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>140589</v>
+      </c>
+      <c r="C68" t="s">
+        <v>506</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="J68" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="K68" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="L68" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6985,50 +7553,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64571</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>140590</v>
+      </c>
+      <c r="C69" t="s">
+        <v>513</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="J69" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="K69" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="L69" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -7052,50 +7624,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64571</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>140591</v>
+      </c>
+      <c r="C70" t="s">
+        <v>519</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="J70" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="K70" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="L70" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7115,50 +7691,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64571</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>140592</v>
+      </c>
+      <c r="C71" t="s">
+        <v>526</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="J71" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="K71" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="L71" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7182,50 +7762,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64571</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>89393</v>
+      </c>
+      <c r="C72" t="s">
+        <v>531</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="J72" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="K72" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="L72" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O72" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7249,50 +7833,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64571</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>140593</v>
+      </c>
+      <c r="C73" t="s">
+        <v>536</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="J73" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="K73" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="L73" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7316,7 +7904,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74">
@@ -7329,37 +7917,37 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="J74" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K74" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="L74" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O74" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7379,50 +7967,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64571</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>140594</v>
+      </c>
+      <c r="C75" t="s">
+        <v>549</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="J75" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K75" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="L75" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7446,50 +8038,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>64571</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>140595</v>
+      </c>
+      <c r="C76" t="s">
+        <v>556</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="J76" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="K76" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="L76" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7513,50 +8109,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>64571</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>140596</v>
+      </c>
+      <c r="C77" t="s">
+        <v>562</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="J77" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="K77" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="L77" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O77" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7580,50 +8180,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>64571</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>140597</v>
+      </c>
+      <c r="C78" t="s">
+        <v>568</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="J78" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
       <c r="K78" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="L78" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O78" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7647,50 +8251,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>64571</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>140598</v>
+      </c>
+      <c r="C79" t="s">
+        <v>574</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="J79" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="K79" t="s">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="L79" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7714,50 +8322,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>64571</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>41269</v>
+      </c>
+      <c r="C80" t="s">
+        <v>580</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="J80" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="K80" t="s">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="L80" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O80" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7781,50 +8393,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>64571</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>140599</v>
+      </c>
+      <c r="C81" t="s">
+        <v>586</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>512</v>
+        <v>587</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="J81" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="K81" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="L81" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O81" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7838,50 +8454,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>64571</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>140600</v>
+      </c>
+      <c r="C82" t="s">
+        <v>591</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="J82" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="K82" t="s">
-        <v>518</v>
+        <v>594</v>
       </c>
       <c r="L82" t="s">
-        <v>519</v>
+        <v>595</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7905,50 +8525,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>519</v>
+        <v>595</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>64571</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>67664</v>
+      </c>
+      <c r="C83" t="s">
+        <v>596</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="J83" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="K83" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="L83" t="s">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O83" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7972,50 +8596,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>524</v>
+        <v>601</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>64571</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>108524</v>
+      </c>
+      <c r="C84" t="s">
+        <v>602</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="J84" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="K84" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="L84" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="O84" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8035,50 +8663,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>64571</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>140601</v>
+      </c>
+      <c r="C85" t="s">
+        <v>608</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="J85" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="K85" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="L85" t="s">
-        <v>534</v>
+        <v>613</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O85" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8102,50 +8734,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>534</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>64571</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>140602</v>
+      </c>
+      <c r="C86" t="s">
+        <v>614</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="J86" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="K86" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="L86" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8169,50 +8805,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>64571</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>140603</v>
+      </c>
+      <c r="C87" t="s">
+        <v>619</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
       <c r="J87" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
       <c r="K87" t="s">
-        <v>542</v>
+        <v>623</v>
       </c>
       <c r="L87" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O87" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8236,50 +8876,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>64571</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>140604</v>
+      </c>
+      <c r="C88" t="s">
+        <v>625</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>544</v>
+        <v>626</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>545</v>
+        <v>627</v>
       </c>
       <c r="J88" t="s">
-        <v>546</v>
+        <v>628</v>
       </c>
       <c r="K88" t="s">
+        <v>629</v>
+      </c>
+      <c r="L88" t="s">
+        <v>630</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
         <v>547</v>
       </c>
-      <c r="L88" t="s">
-        <v>548</v>
-      </c>
-      <c r="M88" t="n">
-        <v>5</v>
-      </c>
-      <c r="N88" t="s">
-        <v>479</v>
-      </c>
       <c r="O88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8303,50 +8947,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>64571</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>140605</v>
+      </c>
+      <c r="C89" t="s">
+        <v>631</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>549</v>
+        <v>632</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>550</v>
+        <v>633</v>
       </c>
       <c r="J89" t="s">
-        <v>551</v>
+        <v>634</v>
       </c>
       <c r="K89" t="s">
-        <v>552</v>
+        <v>635</v>
       </c>
       <c r="L89" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8370,50 +9018,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>64571</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>140606</v>
+      </c>
+      <c r="C90" t="s">
+        <v>637</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="J90" t="s">
-        <v>551</v>
+        <v>634</v>
       </c>
       <c r="K90" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="L90" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O90" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8437,50 +9089,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>64571</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>140607</v>
+      </c>
+      <c r="C91" t="s">
+        <v>642</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>559</v>
+        <v>644</v>
       </c>
       <c r="J91" t="s">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="K91" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="L91" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8504,50 +9160,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>64571</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>19841</v>
+      </c>
+      <c r="C92" t="s">
+        <v>450</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="J92" t="s">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="K92" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="L92" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O92" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8571,50 +9231,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>64571</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>140608</v>
+      </c>
+      <c r="C93" t="s">
+        <v>652</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>568</v>
+        <v>654</v>
       </c>
       <c r="J93" t="s">
-        <v>569</v>
+        <v>655</v>
       </c>
       <c r="K93" t="s">
-        <v>570</v>
+        <v>656</v>
       </c>
       <c r="L93" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O93" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8628,50 +9292,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>64571</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>12608</v>
+      </c>
+      <c r="C94" t="s">
+        <v>658</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="J94" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="K94" t="s">
-        <v>575</v>
+        <v>662</v>
       </c>
       <c r="L94" t="s">
-        <v>576</v>
+        <v>663</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O94" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8695,50 +9363,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>576</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>64571</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>140609</v>
+      </c>
+      <c r="C95" t="s">
+        <v>664</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>577</v>
+        <v>665</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="J95" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
       <c r="K95" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="L95" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8762,50 +9434,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>64571</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>140610</v>
+      </c>
+      <c r="C96" t="s">
+        <v>670</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>582</v>
+        <v>671</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="J96" t="s">
-        <v>584</v>
+        <v>673</v>
       </c>
       <c r="K96" t="s">
-        <v>585</v>
+        <v>674</v>
       </c>
       <c r="L96" t="s">
-        <v>586</v>
+        <v>675</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O96" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8829,50 +9505,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>586</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>64571</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>140611</v>
+      </c>
+      <c r="C97" t="s">
+        <v>676</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>587</v>
+        <v>677</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>588</v>
+        <v>678</v>
       </c>
       <c r="J97" t="s">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="K97" t="s">
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="L97" t="s">
-        <v>591</v>
+        <v>681</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O97" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P97" t="s"/>
       <c r="Q97" t="s"/>
@@ -8886,50 +9566,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>591</v>
+        <v>681</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>64571</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>15358</v>
+      </c>
+      <c r="C98" t="s">
+        <v>682</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>592</v>
+        <v>683</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>593</v>
+        <v>684</v>
       </c>
       <c r="J98" t="s">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="K98" t="s">
-        <v>594</v>
+        <v>685</v>
       </c>
       <c r="L98" t="s">
-        <v>595</v>
+        <v>686</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O98" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8953,50 +9637,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>595</v>
+        <v>686</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>64571</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>140612</v>
+      </c>
+      <c r="C99" t="s">
+        <v>687</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>596</v>
+        <v>688</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>597</v>
+        <v>689</v>
       </c>
       <c r="J99" t="s">
-        <v>598</v>
+        <v>690</v>
       </c>
       <c r="K99" t="s">
-        <v>599</v>
+        <v>691</v>
       </c>
       <c r="L99" t="s">
-        <v>600</v>
+        <v>692</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O99" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9018,56 +9706,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X99" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y99" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>64571</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>140613</v>
+      </c>
+      <c r="C100" t="s">
+        <v>696</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>604</v>
+        <v>697</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>605</v>
+        <v>698</v>
       </c>
       <c r="J100" t="s">
-        <v>606</v>
+        <v>699</v>
       </c>
       <c r="K100" t="s">
-        <v>607</v>
+        <v>700</v>
       </c>
       <c r="L100" t="s">
-        <v>608</v>
+        <v>701</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O100" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -9089,56 +9781,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X100" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y100" t="s">
-        <v>609</v>
+        <v>702</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>64571</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>140614</v>
+      </c>
+      <c r="C101" t="s">
+        <v>703</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>610</v>
+        <v>704</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>611</v>
+        <v>705</v>
       </c>
       <c r="J101" t="s">
-        <v>606</v>
+        <v>699</v>
       </c>
       <c r="K101" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="L101" t="s">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O101" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -9154,56 +9850,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X101" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y101" t="s">
-        <v>614</v>
+        <v>708</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>64571</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>40</v>
+      </c>
+      <c r="C102" t="s">
+        <v>709</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>615</v>
+        <v>710</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>616</v>
+        <v>711</v>
       </c>
       <c r="J102" t="s">
-        <v>606</v>
+        <v>699</v>
       </c>
       <c r="K102" t="s">
-        <v>617</v>
+        <v>712</v>
       </c>
       <c r="L102" t="s">
-        <v>618</v>
+        <v>713</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O102" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9225,56 +9925,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X102" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y102" t="s">
-        <v>619</v>
+        <v>714</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>64571</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>140615</v>
+      </c>
+      <c r="C103" t="s">
+        <v>715</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>620</v>
+        <v>716</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>621</v>
+        <v>717</v>
       </c>
       <c r="J103" t="s">
-        <v>622</v>
+        <v>718</v>
       </c>
       <c r="K103" t="s">
-        <v>623</v>
+        <v>719</v>
       </c>
       <c r="L103" t="s">
-        <v>624</v>
+        <v>720</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O103" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9296,56 +10000,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X103" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y103" t="s">
-        <v>625</v>
+        <v>721</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>64571</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>13283</v>
+      </c>
+      <c r="C104" t="s">
+        <v>722</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>626</v>
+        <v>723</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>627</v>
+        <v>724</v>
       </c>
       <c r="J104" t="s">
-        <v>628</v>
+        <v>725</v>
       </c>
       <c r="K104" t="s">
-        <v>629</v>
+        <v>726</v>
       </c>
       <c r="L104" t="s">
-        <v>630</v>
+        <v>727</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="O104" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9367,56 +10075,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X104" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y104" t="s">
-        <v>631</v>
+        <v>728</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>64571</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>140616</v>
+      </c>
+      <c r="C105" t="s">
+        <v>729</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>632</v>
+        <v>730</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>633</v>
+        <v>731</v>
       </c>
       <c r="J105" t="s">
-        <v>634</v>
+        <v>732</v>
       </c>
       <c r="K105" t="s">
-        <v>635</v>
+        <v>733</v>
       </c>
       <c r="L105" t="s">
-        <v>636</v>
+        <v>734</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>637</v>
+        <v>735</v>
       </c>
       <c r="O105" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -9438,56 +10150,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X105" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y105" t="s">
-        <v>638</v>
+        <v>736</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>64571</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>140617</v>
+      </c>
+      <c r="C106" t="s">
+        <v>737</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>639</v>
+        <v>738</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>640</v>
+        <v>739</v>
       </c>
       <c r="J106" t="s">
-        <v>641</v>
+        <v>740</v>
       </c>
       <c r="K106" t="s">
-        <v>642</v>
+        <v>741</v>
       </c>
       <c r="L106" t="s">
-        <v>643</v>
+        <v>742</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>637</v>
+        <v>735</v>
       </c>
       <c r="O106" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -9509,56 +10225,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X106" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y106" t="s">
-        <v>644</v>
+        <v>743</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>64571</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>140618</v>
+      </c>
+      <c r="C107" t="s">
+        <v>744</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>645</v>
+        <v>745</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>646</v>
+        <v>746</v>
       </c>
       <c r="J107" t="s">
-        <v>647</v>
+        <v>747</v>
       </c>
       <c r="K107" t="s">
-        <v>648</v>
+        <v>748</v>
       </c>
       <c r="L107" t="s">
-        <v>649</v>
+        <v>749</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>637</v>
+        <v>735</v>
       </c>
       <c r="O107" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9582,50 +10302,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>649</v>
+        <v>749</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>64571</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>181</v>
+      </c>
+      <c r="C108" t="s">
+        <v>750</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>650</v>
+        <v>751</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>651</v>
+        <v>752</v>
       </c>
       <c r="J108" t="s">
-        <v>652</v>
+        <v>753</v>
       </c>
       <c r="K108" t="s">
-        <v>653</v>
+        <v>754</v>
       </c>
       <c r="L108" t="s">
-        <v>654</v>
+        <v>755</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>637</v>
+        <v>735</v>
       </c>
       <c r="O108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="n">
@@ -9643,56 +10367,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X108" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y108" t="s">
-        <v>655</v>
+        <v>756</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>64571</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>790</v>
+      </c>
+      <c r="C109" t="s">
+        <v>757</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>656</v>
+        <v>758</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>657</v>
+        <v>759</v>
       </c>
       <c r="J109" t="s">
-        <v>658</v>
+        <v>760</v>
       </c>
       <c r="K109" t="s">
-        <v>659</v>
+        <v>761</v>
       </c>
       <c r="L109" t="s">
-        <v>660</v>
+        <v>762</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>637</v>
+        <v>735</v>
       </c>
       <c r="O109" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P109" t="n">
         <v>2</v>
@@ -9714,56 +10442,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>661</v>
+        <v>763</v>
       </c>
       <c r="X109" t="s">
-        <v>662</v>
+        <v>764</v>
       </c>
       <c r="Y109" t="s">
-        <v>663</v>
+        <v>765</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>64571</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>140619</v>
+      </c>
+      <c r="C110" t="s">
+        <v>766</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>664</v>
+        <v>767</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>665</v>
+        <v>768</v>
       </c>
       <c r="J110" t="s">
-        <v>666</v>
+        <v>769</v>
       </c>
       <c r="K110" t="s">
-        <v>667</v>
+        <v>770</v>
       </c>
       <c r="L110" t="s">
-        <v>668</v>
+        <v>771</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>669</v>
+        <v>772</v>
       </c>
       <c r="O110" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9785,56 +10517,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X110" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y110" t="s">
-        <v>670</v>
+        <v>773</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>64571</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>140620</v>
+      </c>
+      <c r="C111" t="s">
+        <v>774</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>671</v>
+        <v>775</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>672</v>
+        <v>776</v>
       </c>
       <c r="J111" t="s">
-        <v>673</v>
+        <v>777</v>
       </c>
       <c r="K111" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
       <c r="L111" t="s">
-        <v>675</v>
+        <v>779</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>669</v>
+        <v>772</v>
       </c>
       <c r="O111" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9856,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="X111" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="Y111" t="s">
-        <v>676</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
